--- a/MasterTestDataFile.xlsx
+++ b/MasterTestDataFile.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="135">
   <si>
     <t>username</t>
   </si>
@@ -310,124 +310,118 @@
     <t>Json Lee</t>
   </si>
   <si>
-    <t>NewParaUserD2</t>
-  </si>
-  <si>
-    <t>NewAdminUserD2</t>
-  </si>
-  <si>
-    <t>112022 H Street Dr.</t>
-  </si>
-  <si>
-    <t>118022 Small Road Dr.</t>
-  </si>
-  <si>
-    <t>Jn Lee</t>
-  </si>
-  <si>
-    <t>jnadmin3@admintesting.com</t>
-  </si>
-  <si>
-    <t>NewParaUserD3</t>
-  </si>
-  <si>
-    <t>NewAdminUserD3</t>
-  </si>
-  <si>
-    <t>NewClientUserD3</t>
-  </si>
-  <si>
-    <t>NewDataEntryUserD3</t>
-  </si>
-  <si>
-    <t>7.20b.16003</t>
-  </si>
-  <si>
-    <t>Client7.20b.16C</t>
-  </si>
-  <si>
-    <t>7.20b.16001</t>
-  </si>
-  <si>
-    <t>addingDoc7.20b</t>
-  </si>
-  <si>
-    <t>addingAttach7.20b</t>
-  </si>
-  <si>
-    <t>attach7.20b</t>
-  </si>
-  <si>
-    <t>attaching7.20b</t>
-  </si>
-  <si>
-    <t>Client7.20b.16B</t>
-  </si>
-  <si>
-    <t>7.20b.16002</t>
-  </si>
-  <si>
-    <t>7.20b.16004</t>
-  </si>
-  <si>
-    <t>addingAttachm7.20b</t>
-  </si>
-  <si>
-    <t>attachDocument7.20b</t>
-  </si>
-  <si>
-    <t>addRockman7.20b</t>
-  </si>
-  <si>
-    <t>newclientD3@user.com</t>
-  </si>
-  <si>
-    <t>newdataentryuserD3@testing.com</t>
-  </si>
-  <si>
-    <t>parauserd3@testing.com</t>
-  </si>
-  <si>
-    <t>newadminuserd3@testing.com</t>
-  </si>
-  <si>
-    <t>Client7.20b.16D</t>
-  </si>
-  <si>
-    <t>401-118-2220</t>
-  </si>
-  <si>
-    <t>671-328-4440</t>
-  </si>
-  <si>
-    <t>8 Dog Town Dr.</t>
-  </si>
-  <si>
-    <t>82 H St.</t>
-  </si>
-  <si>
-    <t>771-311-9900</t>
-  </si>
-  <si>
-    <t>121-790-1030</t>
-  </si>
-  <si>
-    <t>Client7.20b.16A</t>
-  </si>
-  <si>
-    <t>Import7.20bD.xlsx</t>
-  </si>
-  <si>
-    <t>Import7.20bC.xlsx</t>
-  </si>
-  <si>
-    <t>Nov 18 2016</t>
-  </si>
-  <si>
-    <t>Dec 18 2016</t>
-  </si>
-  <si>
-    <t>18</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Nov 17 2016</t>
+  </si>
+  <si>
+    <t>Dec 17 2016</t>
+  </si>
+  <si>
+    <t>Ja Lee</t>
+  </si>
+  <si>
+    <t>jaadmin3@admintesting.com</t>
+  </si>
+  <si>
+    <t>NewParaUserD4</t>
+  </si>
+  <si>
+    <t>NewAdminUserD4</t>
+  </si>
+  <si>
+    <t>NewClientUserD4</t>
+  </si>
+  <si>
+    <t>NewDataEntryUserD4</t>
+  </si>
+  <si>
+    <t>Client7.20c.16C</t>
+  </si>
+  <si>
+    <t>Client7.20c.16B</t>
+  </si>
+  <si>
+    <t>7.20c.16003</t>
+  </si>
+  <si>
+    <t>7.20c.16001</t>
+  </si>
+  <si>
+    <t>attaching7.20c</t>
+  </si>
+  <si>
+    <t>attach7.20c</t>
+  </si>
+  <si>
+    <t>addingAttach7.20c</t>
+  </si>
+  <si>
+    <t>addingDoc7.20c</t>
+  </si>
+  <si>
+    <t>addingAttachm7.20c</t>
+  </si>
+  <si>
+    <t>attachDocument7.20c</t>
+  </si>
+  <si>
+    <t>addRockman7.20c</t>
+  </si>
+  <si>
+    <t>7.20c.16002</t>
+  </si>
+  <si>
+    <t>7.20c.16004</t>
+  </si>
+  <si>
+    <t>newclientD4@user.com</t>
+  </si>
+  <si>
+    <t>newdataentryuserD4@testing.com</t>
+  </si>
+  <si>
+    <t>parauserD4@testing.com</t>
+  </si>
+  <si>
+    <t>newadminuserD4@testing.com</t>
+  </si>
+  <si>
+    <t>Client7.20c.16D</t>
+  </si>
+  <si>
+    <t>Client7.20c.16A</t>
+  </si>
+  <si>
+    <t>401-108-2220</t>
+  </si>
+  <si>
+    <t>671-308-4440</t>
+  </si>
+  <si>
+    <t>771-301-9900</t>
+  </si>
+  <si>
+    <t>121-700-1030</t>
+  </si>
+  <si>
+    <t>800 Dog Town Dr.</t>
+  </si>
+  <si>
+    <t>8200 H St.</t>
+  </si>
+  <si>
+    <t>100 H Street Dr.</t>
+  </si>
+  <si>
+    <t>11800 Small Road Dr.</t>
+  </si>
+  <si>
+    <t>Import7.20cD.xlsx</t>
+  </si>
+  <si>
+    <t>Import7.20cC.xlsx</t>
   </si>
 </sst>
 </file>
@@ -864,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:B46"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,7 +930,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>27</v>
@@ -951,7 +945,7 @@
         <v>81</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>30</v>
@@ -990,7 +984,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>30</v>
@@ -1001,7 +995,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>30</v>
@@ -1012,7 +1006,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>30</v>
@@ -1023,7 +1017,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>30</v>
@@ -1060,7 +1054,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>30</v>
@@ -1189,13 +1183,13 @@
         <v>13</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>10</v>
@@ -1243,7 +1237,7 @@
         <v>18</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>96</v>
@@ -1255,7 +1249,7 @@
         <v>109</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>16</v>
@@ -1269,7 +1263,7 @@
         <v>18</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>96</v>
@@ -1281,7 +1275,7 @@
         <v>109</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>16</v>
@@ -1295,7 +1289,7 @@
         <v>18</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>96</v>
@@ -1307,7 +1301,7 @@
         <v>109</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>16</v>
@@ -1321,7 +1315,7 @@
         <v>18</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>96</v>
@@ -1333,7 +1327,7 @@
         <v>109</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>16</v>
@@ -1393,7 +1387,7 @@
         <v>45</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>96</v>
@@ -1402,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>16</v>
@@ -1419,7 +1413,7 @@
         <v>45</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>96</v>
@@ -1428,10 +1422,10 @@
         <v>30</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>16</v>
@@ -1445,7 +1439,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>96</v>
@@ -1454,10 +1448,10 @@
         <v>30</v>
       </c>
       <c r="E39" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>119</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>16</v>
@@ -1534,13 +1528,13 @@
         <v>29</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>27</v>
@@ -1549,13 +1543,13 @@
         <v>31</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H45" s="11" t="s">
         <v>32</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J45" s="11" t="s">
         <v>30</v>
@@ -1575,13 +1569,13 @@
         <v>29</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>27</v>
@@ -1596,7 +1590,7 @@
         <v>76</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J46" s="11" t="s">
         <v>30</v>
@@ -1699,13 +1693,13 @@
         <v>34</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>27</v>
@@ -1720,7 +1714,7 @@
         <v>74</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J51" s="11" t="s">
         <v>30</v>
@@ -1740,13 +1734,13 @@
         <v>34</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>27</v>
@@ -1761,7 +1755,7 @@
         <v>75</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J52" s="11" t="s">
         <v>30</v>
@@ -1819,13 +1813,13 @@
         <v>66</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>125</v>
@@ -1834,7 +1828,7 @@
         <v>77</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H56" s="11" t="s">
         <v>55</v>
@@ -1851,13 +1845,13 @@
         <v>66</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>126</v>
@@ -1866,7 +1860,7 @@
         <v>78</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H57" s="11" t="s">
         <v>58</v>
@@ -1937,22 +1931,22 @@
         <v>67</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F61" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="H61" s="11" t="s">
         <v>62</v>
@@ -1969,22 +1963,22 @@
         <v>67</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F62" s="11" t="s">
         <v>61</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="H62" s="11" t="s">
         <v>64</v>
@@ -2033,28 +2027,28 @@
         <v>71</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="F66" s="12" t="s">
         <v>72</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -2062,28 +2056,28 @@
         <v>71</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="F67" s="12" t="s">
         <v>72</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H67" s="17" t="s">
         <v>109</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -2144,40 +2138,40 @@
         <v>4</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="G71" s="21" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="I71" s="21" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J71" s="21" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="K71" s="21" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="L71" s="21" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="M71" s="21" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="N71" s="21" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="O71" s="21" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
